--- a/results.xlsx
+++ b/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>test stop time</t>
   </si>
@@ -44,9 +44,6 @@
     <t>delivered passangers</t>
   </si>
   <si>
-    <t>time what the passangers spend in cargo</t>
-  </si>
-  <si>
     <t>total tick num</t>
   </si>
   <si>
@@ -60,6 +57,18 @@
   </si>
   <si>
     <t>Cnet</t>
+  </si>
+  <si>
+    <t>SUM:</t>
+  </si>
+  <si>
+    <t>passangers in taxi</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>taxi is free</t>
   </si>
 </sst>
 </file>
@@ -113,6 +122,4052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Message ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DynCNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1828065184"/>
+        <c:axId val="1828063552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1828065184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time of simulation [timesteps]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828063552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1828063552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Total number of messages</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828065184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Delivered passangers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3250415573053369"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DynCNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1836409504"/>
+        <c:axId val="1836398624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1836409504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time of simulation [timesteps]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836398624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Total number of messages</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836409504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Taxi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> utilization - DynCNet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>passangers in taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$2,Sheet1!$G$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>passangers in taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>taxi is free</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$13,Sheet1!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>518249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Taxi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> utilization - CNet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>passangers in taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$2,Sheet1!$G$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>passangers in taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>taxi is free</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$27,Sheet1!$H$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>529174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +4455,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -423,16 +4478,16 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,22 +4760,22 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>3798</v>
+        <v>16339</v>
       </c>
       <c r="F11">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="G11">
-        <v>51567</v>
+        <v>84031</v>
       </c>
       <c r="H11">
-        <v>167236</v>
+        <v>158560</v>
       </c>
       <c r="I11">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J11">
-        <v>3357</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,27 +4792,49 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>4050</v>
+        <v>17924</v>
       </c>
       <c r="F12">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="G12">
-        <v>56001</v>
+        <v>93475</v>
       </c>
       <c r="H12">
-        <v>186212</v>
+        <v>175630</v>
       </c>
       <c r="I12">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J12">
-        <v>3605</v>
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G3:G12)</f>
+        <v>518249</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H3:H12)</f>
+        <v>963520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <f>H13-G13</f>
+        <v>445271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -780,16 +4857,16 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,22 +4883,22 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>2889</v>
+        <v>2715</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>9289</v>
+        <v>10104</v>
       </c>
       <c r="H17">
-        <v>17711</v>
+        <v>17387</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>262</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -838,22 +4915,22 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>4231</v>
+        <v>3600</v>
       </c>
       <c r="F18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>18208</v>
+        <v>20010</v>
       </c>
       <c r="H18">
-        <v>35485</v>
+        <v>34482</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>947</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,22 +4947,22 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>4547</v>
+        <v>4172</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G19">
-        <v>25019</v>
+        <v>29485</v>
       </c>
       <c r="H19">
-        <v>53799</v>
+        <v>52120</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>1335</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -902,22 +4979,22 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>2569</v>
+        <v>4954</v>
       </c>
       <c r="F20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
-        <v>29459</v>
+        <v>38715</v>
       </c>
       <c r="H20">
-        <v>72431</v>
+        <v>69573</v>
       </c>
       <c r="I20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J20">
-        <v>1874</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,7 +5026,7 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>3058</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -965,6 +5042,24 @@
       <c r="D22">
         <v>8</v>
       </c>
+      <c r="E22">
+        <v>5408</v>
+      </c>
+      <c r="F22">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>56889</v>
+      </c>
+      <c r="H22">
+        <v>104864</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>3598</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -979,6 +5074,24 @@
       <c r="D23">
         <v>8</v>
       </c>
+      <c r="E23">
+        <v>5499</v>
+      </c>
+      <c r="F23">
+        <v>108</v>
+      </c>
+      <c r="G23">
+        <v>65486</v>
+      </c>
+      <c r="H23">
+        <v>122478</v>
+      </c>
+      <c r="I23">
+        <v>53</v>
+      </c>
+      <c r="J23">
+        <v>4361</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -993,6 +5106,24 @@
       <c r="D24">
         <v>8</v>
       </c>
+      <c r="E24">
+        <v>5774</v>
+      </c>
+      <c r="F24">
+        <v>119</v>
+      </c>
+      <c r="G24">
+        <v>77793</v>
+      </c>
+      <c r="H24">
+        <v>140344</v>
+      </c>
+      <c r="I24">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>4830</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1007,6 +5138,24 @@
       <c r="D25">
         <v>8</v>
       </c>
+      <c r="E25">
+        <v>5985</v>
+      </c>
+      <c r="F25">
+        <v>135</v>
+      </c>
+      <c r="G25">
+        <v>86657</v>
+      </c>
+      <c r="H25">
+        <v>157874</v>
+      </c>
+      <c r="I25">
+        <v>67</v>
+      </c>
+      <c r="J25">
+        <v>5573</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1021,8 +5170,46 @@
       <c r="D26">
         <v>8</v>
       </c>
+      <c r="E26">
+        <v>6275</v>
+      </c>
+      <c r="F26">
+        <v>152</v>
+      </c>
+      <c r="G26">
+        <v>96298</v>
+      </c>
+      <c r="H26">
+        <v>174836</v>
+      </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f>SUM(G17:G26)</f>
+        <v>529174</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H17:H26)</f>
+        <v>961263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <f>H27-G27</f>
+        <v>432089</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>